--- a/medicine/Enfance/Tribunal_pour_enfants_(Allemagne)/Tribunal_pour_enfants_(Allemagne).xlsx
+++ b/medicine/Enfance/Tribunal_pour_enfants_(Allemagne)/Tribunal_pour_enfants_(Allemagne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Allemagne, le tribunal pour enfants[1] (allemand : Jugendgericht, litt. « tribunal de la jeunesse » ou « tribunal des jeunes ») traite les comportements répréhensibles des jeunes (article 33 JGG) et comprend trois instances : le juge pénal, le tribunal pour mineurs et la chambre de la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Allemagne, le tribunal pour enfants (allemand : Jugendgericht, litt. « tribunal de la jeunesse » ou « tribunal des jeunes ») traite les comportements répréhensibles des jeunes (article 33 JGG) et comprend trois instances : le juge pénal, le tribunal pour mineurs et la chambre de la jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces juridictions s'occupent de la délinquance des jeunes, mais aussi du cas des enfants mis en danger par des adultes et des violations des lois et dispositions visant à protéger les jeunes (article 26 GVG).
 Le juge de la jeunesse supervise l'exécution des mesures punitives ordonnées par le tribunal. Ces tribunaux sont inspirés du modèle nord-américain. Ils ont été créés en Allemagne en 1908 et sont devenus obligatoires en 1923 du fait d’une loi sur le tribunal pour mineurs.
